--- a/Assignment/Module 2/Instagram HLR And Tese case.xlsx
+++ b/Assignment/Module 2/Instagram HLR And Tese case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="114">
   <si>
     <t>Functionality ID</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>while clicking on meta verified link it is working properly and also had open a new page.</t>
-  </si>
-  <si>
-    <t>check dropdown optrions</t>
   </si>
   <si>
     <t>while clicking on dropdown option is is all working properly.</t>
@@ -218,13 +215,221 @@
     <t>1) www.instagram.com
 2) press enter key
 3) click on sign up link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on login button</t>
+  </si>
+  <si>
+    <t>check login button with correct email id and password</t>
+  </si>
+  <si>
+    <t>email id:- niravgoti1236@gmail.com
+password:- Jhoncena@16</t>
+  </si>
+  <si>
+    <t>user dashboard should be properly opened with the user details</t>
+  </si>
+  <si>
+    <t>check login button with correct email id and blank password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email id:- niravgoti1236@gmail.com
+password:- </t>
+  </si>
+  <si>
+    <t>to display the proper message</t>
+  </si>
+  <si>
+    <t>check login button with blank email id and correct password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email id:- 
+password:- Jhoncena@16 </t>
+  </si>
+  <si>
+    <t>check login button with blank email id and blank password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email id:- 
+password:- </t>
+  </si>
+  <si>
+    <t>check login button with email id having special character and correct password</t>
+  </si>
+  <si>
+    <t>email id:- niravgoti1236@gmail.com@@
+password:- Jhoncena@16</t>
+  </si>
+  <si>
+    <t>check login button with correct email id and having special characters with password</t>
+  </si>
+  <si>
+    <t>email id:- niravgoti1236@gmail.com
+password:- Jhoncena@16@@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email id:- niravgoti1236@gmail.com@@
+password:- </t>
+  </si>
+  <si>
+    <t>email id:- 
+password:- Jhoncena@16@@</t>
+  </si>
+  <si>
+    <t>email id:- niravgoti1236@gmail.com123
+password:- Jhoncena@16</t>
+  </si>
+  <si>
+    <t>email id:- niravgoti1236@gmail.com
+password:- Jhoncena@16123</t>
+  </si>
+  <si>
+    <t>email id:- niravgoti1236 gmail.com
+password:- Jhoncena@16</t>
+  </si>
+  <si>
+    <t>email id:- niravgoti1236@gmail.com
+password:- Jhoncena 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email id:- niravgoti1236 gmail.com
+password:- </t>
+  </si>
+  <si>
+    <t>email id:- 
+password:- Jhoncena 16</t>
+  </si>
+  <si>
+    <t>check login button with email id as blank and white space between them in password</t>
+  </si>
+  <si>
+    <t>check login button with email id having white space between them and password as blank</t>
+  </si>
+  <si>
+    <t>check login button with correct email id and white space between them in password</t>
+  </si>
+  <si>
+    <t>check login button with email id having white space between them and correct password</t>
+  </si>
+  <si>
+    <t>check login button with correct email id and having digit with password</t>
+  </si>
+  <si>
+    <t>check login button with email id having digit and correct password</t>
+  </si>
+  <si>
+    <t>check login button with blank email id and having special characters with password</t>
+  </si>
+  <si>
+    <t>check login button with email id having special characters and password as blank</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on forgot password link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on website logo</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on get it on google play button</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on get it microsoft button</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on meta link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on about link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on blog link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on jobs link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on help link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on api link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on privacy link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on terms link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on tops accounts link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on locations link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on instagram lite link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on check contact uploading &amp; non-users link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on meta verified link</t>
+  </si>
+  <si>
+    <t>1) www.instagram.com
+2) press enter key
+3) click on dropdown options menu</t>
+  </si>
+  <si>
+    <t>check dropdown options</t>
+  </si>
+  <si>
+    <t>check dropdown options menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +458,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +479,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -285,11 +502,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,6 +537,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +857,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -615,7 +868,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -626,7 +879,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -637,7 +890,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -648,7 +901,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -659,7 +912,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -670,7 +923,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -681,7 +934,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -692,7 +945,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -703,7 +956,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -714,7 +967,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -725,7 +978,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -736,7 +989,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -747,7 +1000,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -758,7 +1011,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -769,7 +1022,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -780,7 +1033,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -791,7 +1044,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -802,7 +1055,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -813,7 +1066,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -824,7 +1077,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -835,7 +1088,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -846,14 +1099,14 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -866,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,39 +1130,39 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -923,25 +1176,25 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="H2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -952,378 +1205,980 @@
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="2" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>4</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>12</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>15</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>16</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>17</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>21</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>22</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -1481,5 +2336,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>